--- a/src/test/java/resourses/Capitals (2).xlsx
+++ b/src/test/java/resourses/Capitals (2).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\IdeaProjects\B151MavenJUnit\src\test\java\resourses\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4F7168-41B9-447F-8B54-57F1E47150D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="192" windowWidth="19656" windowHeight="9396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -81,12 +87,28 @@
   </si>
   <si>
     <t>Oslo</t>
+  </si>
+  <si>
+    <t>NUFUS</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -344,14 +366,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -363,6 +385,9 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -371,6 +396,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -379,6 +407,9 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s" s="0">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -387,6 +418,9 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s" s="0">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -394,6 +428,9 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -450,7 +487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/src/test/java/resourses/Capitals (2).xlsx
+++ b/src/test/java/resourses/Capitals (2).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>1300</t>
+  </si>
+  <si>
+    <t>712816</t>
+  </si>
+  <si>
+    <t>2161000</t>
+  </si>
+  <si>
+    <t>8982000</t>
+  </si>
+  <si>
+    <t>5663000</t>
   </si>
 </sst>
 </file>
@@ -397,7 +409,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -408,7 +420,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -419,7 +431,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -430,7 +442,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
